--- a/SimulatedData-new/Exogeneus/ALLINONE_Exogenous_Results_alpha.xlsx
+++ b/SimulatedData-new/Exogeneus/ALLINONE_Exogenous_Results_alpha.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pietro\Desktop\Pietro\Politecnico\Tesi\Thesis-Code\SimulatedData-new\Exogeneus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20124BB0-A5C2-4CCD-9629-B0BFD45F5B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA8CAF-20AD-43AD-8868-E4D2F9773CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>n1 =  98 , p/n =  0.4 , alpha =  1 , QR AR(1)</t>
   </si>
@@ -884,6 +897,93 @@
   </si>
   <si>
     <t>n1 =  998 , p/n =  0.4 , alpha =  0.01 , CQR AR(0)</t>
+  </si>
+  <si>
+    <t>AR(1)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>QR within CI</t>
+  </si>
+  <si>
+    <t>CQR within CI</t>
+  </si>
+  <si>
+    <t>QR above CI</t>
+  </si>
+  <si>
+    <t>CQR above CI</t>
+  </si>
+  <si>
+    <t>QR below CI</t>
+  </si>
+  <si>
+    <t>CQR below CI</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>n1 = 98 average QR AR(2)</t>
+  </si>
+  <si>
+    <t>n1 = 98 average CQR AR(2)</t>
+  </si>
+  <si>
+    <t>n1 = 198 average QR AR(2)</t>
+  </si>
+  <si>
+    <t>n1 = 198 average CQR AR(2)</t>
+  </si>
+  <si>
+    <t>n1 = 998 average QR AR(2)</t>
+  </si>
+  <si>
+    <t>n1 = 998 average CQR AR(2)</t>
+  </si>
+  <si>
+    <t>p/n = 0.1 average QR AR(2)</t>
+  </si>
+  <si>
+    <t>p/n = 0.1 average CQR AR(2)</t>
+  </si>
+  <si>
+    <t>p/n = 0.2 average QR AR(2)</t>
+  </si>
+  <si>
+    <t>p/n = 0.2 average CQR AR(2)</t>
+  </si>
+  <si>
+    <t>p/n = 0.3 average QR AR(2)</t>
+  </si>
+  <si>
+    <t>p/n = 0.3 average CQR AR(2)</t>
+  </si>
+  <si>
+    <t>p/n = 0.4 average QR AR(2)</t>
+  </si>
+  <si>
+    <t>p/n = 0.4 average CQR AR(2)</t>
+  </si>
+  <si>
+    <t>Total AR(1) QR</t>
+  </si>
+  <si>
+    <t>Total AR(1) CQR</t>
+  </si>
+  <si>
+    <t>Total AR(2) QR</t>
+  </si>
+  <si>
+    <t>Total AR(2) CQR</t>
+  </si>
+  <si>
+    <t>Total AR(3) QR</t>
+  </si>
+  <si>
+    <t>Total AR(3) CQR</t>
   </si>
 </sst>
 </file>
@@ -1217,16 +1317,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G324"/>
+  <dimension ref="A2:L324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" customWidth="1"/>
+    <col min="11" max="11" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1248,8 +1351,14 @@
       <c r="G2">
         <v>2.55454545454546E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1271,8 +1380,15 @@
       <c r="G3" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3">
+        <f>(B2+B4+B6+B11+B13+B15+B20+B22+B24+B29+B31+B33+B38+B40+B42+B47+B49+B51+B56+B58+B60+B65+B67+B69+B74+B76+B78+B83+B85+B87+B92+B94+B96+B101+B103+B105+B110+B112+B114+B119+B121+B123+B128+B130+B132+B137+B139+B141+B146+B148+B150+B155+B157+B159+B164+B166+B168+B173+B175+B177+B182+B184+B186+B191+B193+B195+B200+B202+B204+B209+B211+B213+B218+B220+B222+B227+B229+B231+B236+B238+B240+B245+B247+B249+B254+B256+B258+B263+B265+B267+B272+B274+B276+B281+B283+B285+B290+B292+B294+B299+B301+B303++B308+B310+B312++B317+B319+B321)/20/108%</f>
+        <v>8.5648148148148149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1294,8 +1410,15 @@
       <c r="G4">
         <v>3.1672727272727297E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L4">
+        <f>(B3+B5+B7+B12+B14+B16+B21+B23+B25+B30+B32+B34+B39+B41+B43+B48+B50+B52+B57+B59+B61+B66+B68+B70+B75+B77+B79+B84+B86+B88+B93+B95+B97+B102+B104+B106+B111+B113+B115+B120+B122+B124+B129+B131+B133+B138+B140+B142+B147+B149+B151+B156+B158+B160+B165+B167+B169+B174+B176+B178+B183+B185+B187+B192+B194+B196+B201+B203+B205+B210+B212+B214+B219+B221+B223+B228+B230+B232+B237+B239+B241+B246+B248+B250+B255+B257+B259+B264+B266+B268+B273+B275+B277+B282+B284+B286+B291+B293+B295+B300+B302+B304++B309+B311+B313++B318+B320+B322)/20/108%</f>
+        <v>58.842592592592588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +1441,7 @@
         <v>1.000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1340,8 +1463,15 @@
       <c r="G6">
         <v>3.5200000000000099E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>292</v>
+      </c>
+      <c r="L6">
+        <f>(C2+C4+C6+C11+C13+C15+C20+C22+C24+C29+C31+C33+C38+C40+C42+C47+C49+C51+C56+C58+C60+C65+C67+C69+C74+C76+C78+C83+C85+C87+C92+C94+C96+C101+C103+C105+C110+C112+C114+C119+C121+C123+C128+C130+C132+C137+C139+C141+C146+C148+C150+C155+C157+C159+C164+C166+C168+C173+C175+C177+C182+C184+C186+C191+C193+C195+C200+C202+C204+C209+C211+C213+C218+C220+C222+C227+C229+C231+C236+C238+C240+C245+C247+C249+C254+C256+C258+C263+C265+C267+C272+C274+C276+C281+C283+C285+C290+C292+C294+C299+C301+C303++C308+C310+C312++C317+C319+C321)/20/108%</f>
+        <v>48.24074074074074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1363,8 +1493,15 @@
       <c r="G7" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7">
+        <f>(C3+C5+C7+C12+C14+C16+C21+C23+C25+C30+C32+C34+C39+C41+C43+C48+C50+C52+C57+C59+C61+C66+C68+C70+C75+C77+C79+C84+C86+C88+C93+C95+C97+C102+C104+C106+C111+C113+C115+C120+C122+C124+C129+C131+C133+C138+C140+C142+C147+C149+C151+C156+C158+C160+C165+C167+C169+C174+C176+C178+C183+C185+C187+C192+C194+C196+C201+C203+C205+C210+C212+C214+C219+C221+C223+C228+C230+C232+C237+C239+C241+C246+C248+C250+C255+C257+C259+C264+C266+C268+C273+C275+C277+C282+C284+C286+C291+C293+C295+C300+C302+C304++C309+C311+C313++C318+C320+C322)/20/108%</f>
+        <v>39.027777777777771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1387,7 +1524,7 @@
         <v>2.7363636363636399E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1409,8 +1546,24 @@
       <c r="G9">
         <v>2.0000000000000798E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>294</v>
+      </c>
+      <c r="L9">
+        <f>(D2+D4+D6+D11+D13+D15+D20+D22+D24+D29+D31+D33+D38+D40+D42+D47+D49+D51+D56+D58+D60+D65+D67+D69+D74+D76+D78+D83+D85+D87+D92+D94+D96+D101+D103+D105+D110+D112+D114+D119+D121+D123+D128+D130+D132+D137+D139+D141+D146+D148+D150+D155+D157+D159+D164+D166+D168+D173+D175+D177+D182+D184+D186+D191+D193+D195+D200+D202+D204+D209+D211+D213+D218+D220+D222+D227+D229+D231+D236+D238+D240+D245+D247+D249+D254+D256+D258+D263+D265+D267+D272+D274+D276+D281+D283+D285+D290+D292+D294+D299+D301+D303++D308+D310+D312++D317+D319+D321)/20/108%</f>
+        <v>43.194444444444443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10">
+        <f>(D3+D5+D7+D12+D14+D16+D21+D23+D25+D30+D32+D34+D39+D41+D43+D48+D50+D52+D57+D59+D61+D66+D68+D70+D75+D77+D79+D84+D86+D88+D93+D95+D97+D102+D104+D106+D111+D113+D115+D120+D122+D124+D129+D131+D133+D138+D140+D142+D147+D149+D151+D156+D158+D160+D165+D167+D169+D174+D176+D178+D183+D185+D187+D192+D194+D196+D201+D203+D205+D210+D212+D214+D219+D221+D223+D228+D230+D232+D237+D239+D241+D246+D248+D250+D255+D257+D259+D264+D266+D268+D273+D275+D277+D282+D284+D286+D291+D293+D295+D300+D302+D304++D309+D311+D313++D318+D320+D322)/20/108%</f>
+        <v>2.1296296296296293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1586,7 @@
         <v>2.7760000000000101E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1608,11 @@
       <c r="G12" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1478,8 +1634,15 @@
       <c r="G13">
         <v>3.1472727272727298E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>297</v>
+      </c>
+      <c r="L13">
+        <f>(E4+E13+E22+E31+E40+E49+E58+E67+E76+E85+E94+E103)/12</f>
+        <v>8.0254583333333337E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1501,8 +1664,15 @@
       <c r="G14" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14">
+        <f>(E5+E14+E23+E32+E41+E50+E59+E68+E77+E86+E95+E104)/12</f>
+        <v>1.0767499999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1695,7 @@
         <v>3.35636363636364E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1547,8 +1717,15 @@
       <c r="G16" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>299</v>
+      </c>
+      <c r="L16">
+        <f>(E112+E121+E130+E148+E157+E166+E175+E184+E193+E202+E211)/12</f>
+        <v>7.2120833333333328E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1570,8 +1747,15 @@
       <c r="G17">
         <v>2.7488888888889E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>300</v>
+      </c>
+      <c r="L17">
+        <f>(E113+E122+E131+E149+E158+E167+E176+E185+E194+E203+E212)/12</f>
+        <v>8.1745833333333306E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1594,7 +1778,16 @@
         <v>2.9666666666667099E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>301</v>
+      </c>
+      <c r="L19">
+        <f>(E220+E229+E238+E247+E256+E265+E274+E283+E292+E301+E310+E319)/12</f>
+        <v>7.2707499999999994E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1616,8 +1809,15 @@
       <c r="G20">
         <v>2.7470000000000099E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>302</v>
+      </c>
+      <c r="L20">
+        <f>(E221+E230+E239+E248+E257+E266+E275+E284+E293+E302+E311+E320)/12</f>
+        <v>3.7316666666666574E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1840,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1863,7 @@
         <v>3.0709090909090998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1685,8 +1885,11 @@
       <c r="G23" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1708,8 +1911,11 @@
       <c r="G24">
         <v>3.26181818181819E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1732,7 +1938,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1754,8 +1960,11 @@
       <c r="G26">
         <v>2.6311111111111202E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1777,8 +1986,11 @@
       <c r="G27">
         <v>1.25000000000008E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1800,8 +2012,11 @@
       <c r="G29">
         <v>5.9120000000000103E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1823,8 +2038,11 @@
       <c r="G30">
         <v>2.1200000000001001E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1847,7 +2065,7 @@
         <v>6.4020000000000105E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +2087,11 @@
       <c r="G32">
         <v>1.8750000000000301E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1892,8 +2113,11 @@
       <c r="G33">
         <v>6.6950000000000107E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1916,7 +2140,7 @@
         <v>2.8333333333333899E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1939,7 +2163,7 @@
         <v>5.4636363636363698E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1962,7 +2186,16 @@
         <v>3.3000000000000399E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>311</v>
+      </c>
+      <c r="L37">
+        <f>(E2+E11+E20+E29+E38+E47+E56+E65+E74+E83+E92+E101+E110+E119+E128+E137+E146+E155+E164+E173+E182+E191+E200+E209+E218+E227+E236+E245+E254+E263+E272+E281+E290+E299+E308+E317)/36</f>
+        <v>7.401777777777778E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1984,8 +2217,15 @@
       <c r="G38">
         <v>5.6700000000000098E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38">
+        <f>(E3+E12+E21+E30+E39+E48+E57+E66+E75+E84+E93+E102+E111+E120+E129+E138+E147+E156+E165+E174+E183+E192+E201+E210+E219+E228+E237+E246+E255+E264+E273+E282+E291+E300+E309+E318)/36</f>
+        <v>7.8806944444444332E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2008,7 +2248,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2030,8 +2270,15 @@
       <c r="G40">
         <v>6.4350000000000102E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40">
+        <f>(E4+E13+E22+E31+E40+E49+E58+E67+E76+E85+E94+E103+E112+E121+E130+E139+E148+E157+E166+E175+E184+E193+E202+E211+E220+E229+E238+E247+E256+E265+E274+E283+E292+E301+E310+E319)/36</f>
+        <v>7.6722916666666641E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2300,15 @@
       <c r="G41">
         <v>3.9375000000000503E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ref="L41" si="0">(E5+E14+E23+E32+E41+E50+E59+E68+E77+E86+E95+E104+E113+E122+E131+E140+E149+E158+E167+E176+E185+E194+E203+E212+E221+E230+E239+E248+E257+E266+E275+E284+E293+E302+E311+E320)/36</f>
+        <v>7.7306944444444402E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2077,7 +2331,7 @@
         <v>6.8140000000000103E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2099,8 +2353,15 @@
       <c r="G43">
         <v>3.70000000000005E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>315</v>
+      </c>
+      <c r="L43">
+        <f>(E6+E15+E24+E33+E42+E51+E60+E69+E78+E87+E96+E105+E114+E123+E132+E141+E150+E159+E168+E177+E186+E195+E204+E213+E222+E231+E240+E249+E258+E267+E276+E285+E294+E303+E312+E321)/36</f>
+        <v>7.8129583333333308E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2122,8 +2383,15 @@
       <c r="G44">
         <v>5.7120000000000101E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>316</v>
+      </c>
+      <c r="L44">
+        <f>(E7+E16+E25+E34+E43+E52+E61+E70+E79+E88+E97+E106+E115+E124+E133+E142+E151+E160+E169+E178+E187+E196+E205+E214+E223+E232+E241+E250+E259+E268+E277+E286+E295+E304+E313+E322)/36</f>
+        <v>7.8056944444444354E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2146,7 +2414,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2169,7 +2437,7 @@
         <v>5.2333333333333398E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
